--- a/pms-server/uploadfiles/template/crimp_configration.xlsx
+++ b/pms-server/uploadfiles/template/crimp_configration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>客户号</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>端子号</t>
-  </si>
-  <si>
-    <t>电线型号</t>
   </si>
   <si>
     <t>截面</t>
@@ -152,24 +149,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D8" activeCellId="0" pane="topLeft" sqref="D8"/>
+      <selection activeCell="E7" activeCellId="0" pane="topLeft" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.87843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="1" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.8980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.0705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.1019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.6392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.4470588235294"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.9843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.42352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="8.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.9764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.1372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.1764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.5411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3960784313725"/>
+    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="8.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.64313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -211,9 +209,6 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2"/>

--- a/pms-server/uploadfiles/template/crimp_configration.xlsx
+++ b/pms-server/uploadfiles/template/crimp_configration.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>客户号</t>
   </si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>绝缘压接宽度公差</t>
+  </si>
+  <si>
+    <t>操作</t>
   </si>
 </sst>
 </file>
@@ -149,29 +155,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E7" activeCellId="0" pane="topLeft" sqref="E7"/>
+      <selection activeCell="H8" activeCellId="0" pane="topLeft" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.42352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.92941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="8.64313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.9764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.1372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.1764705882353"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.5411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3960784313725"/>
-    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="8.64313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.47450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.47450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98039215686275"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="1" width="8.69411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.0588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.243137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8078431372549"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.6313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.1254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.4901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.69411764705882"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -209,6 +215,12 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2"/>

--- a/pms-server/uploadfiles/template/crimp_configration.xlsx
+++ b/pms-server/uploadfiles/template/crimp_configration.xlsx
@@ -23,10 +23,10 @@
     <t>客户号</t>
   </si>
   <si>
+    <t>端子号</t>
+  </si>
+  <si>
     <t>所属线组</t>
-  </si>
-  <si>
-    <t>端子号</t>
   </si>
   <si>
     <t>截面</t>
@@ -158,22 +158,22 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H8" activeCellId="0" pane="topLeft" sqref="H8"/>
+      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.47450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.47450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98039215686275"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="1" width="8.69411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.0588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.243137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8078431372549"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.6313725490196"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.1254901960784"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.4901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.69411764705882"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.52549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.52549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="1" width="8.74117647058823"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.1411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.7254901960784"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.2"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.5803921568627"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.74117647058823"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">

--- a/pms-server/uploadfiles/template/crimp_configration.xlsx
+++ b/pms-server/uploadfiles/template/crimp_configration.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>客户号</t>
+  </si>
+  <si>
+    <t>模具号</t>
   </si>
   <si>
     <t>端子号</t>
@@ -155,25 +158,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
+      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.52549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.52549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="1" width="8.74117647058823"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.1411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.7254901960784"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.2"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.5803921568627"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.74117647058823"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.0901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="1" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.2274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.3411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.9764705882353"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.8156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="13.2666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="8.7921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -221,6 +224,9 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2"/>
